--- a/ValidateData/kinetic-data_WP5173.xlsx
+++ b/ValidateData/kinetic-data_WP5173.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Uniprot</t>
   </si>
   <si>
-    <t xml:space="preserve">Ensemble</t>
+    <t xml:space="preserve">Ensembl</t>
   </si>
   <si>
     <t xml:space="preserve">RheaID</t>
@@ -46,19 +46,22 @@
     <t xml:space="preserve">SusbtrateName</t>
   </si>
   <si>
-    <t xml:space="preserve">Km</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kcat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kcat/Km</t>
+    <t xml:space="preserve">Km (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kcat (s-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kcat/Km (M-1s-1)</t>
   </si>
   <si>
     <t xml:space="preserve">pH</t>
   </si>
   <si>
-    <t xml:space="preserve">Temperature</t>
+    <t xml:space="preserve">Temperature (Celcius)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AdditionalConditions</t>
   </si>
   <si>
     <t xml:space="preserve">Organism</t>
@@ -68,9 +71,6 @@
   </si>
   <si>
     <t xml:space="preserve">Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AdditionalConditions</t>
   </si>
   <si>
     <t xml:space="preserve">GAL</t>
@@ -487,7 +487,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -511,31 +511,15 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF181717"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF181717"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -557,39 +541,20 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -617,16 +582,40 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -634,68 +623,8 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -706,52 +635,16 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -784,12 +677,12 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFF2CC"/>
+      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0563C1"/>
-      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -832,640 +725,641 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q1048576"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="22.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="16.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="4" width="21.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="1" width="10.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="11" t="n">
+      <c r="E2" s="2"/>
+      <c r="F2" s="4" t="n">
         <v>21296</v>
       </c>
-      <c r="G2" s="9" t="n">
+      <c r="G2" s="2" t="n">
         <v>28260</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="2"/>
+      <c r="O2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="8" t="n">
         <v>37965</v>
       </c>
-      <c r="G3" s="16" t="n">
+      <c r="G3" s="2" t="n">
         <v>28260</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2"/>
+      <c r="O3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="17" t="n">
+      <c r="F4" s="9" t="n">
         <v>13554</v>
       </c>
-      <c r="G4" s="16" t="n">
+      <c r="G4" s="2" t="n">
         <v>28260</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="18" t="s">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="M4" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2"/>
+      <c r="O4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="P4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="8" t="n">
         <v>23539</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="16" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2"/>
+      <c r="O5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="19" t="n">
+      <c r="P5" s="10" t="n">
         <v>25288802</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="17" t="n">
+      <c r="F6" s="9" t="n">
         <v>22169</v>
       </c>
-      <c r="G6" s="16" t="n">
+      <c r="G6" s="2" t="n">
         <v>18066</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="20" t="n">
+      <c r="K6" s="11" t="n">
         <v>167</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="2"/>
+      <c r="O6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="P6" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="17" t="n">
+      <c r="F7" s="9" t="n">
         <v>22170</v>
       </c>
-      <c r="G7" s="16" t="n">
+      <c r="G7" s="2" t="n">
         <v>18307</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="1" t="s">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="20" t="n">
+      <c r="J7" s="11" t="n">
         <v>36</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="2"/>
+      <c r="O7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="P7" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" s="18" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
+    <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="17" t="n">
+      <c r="F8" s="9" t="n">
         <v>41732</v>
       </c>
-      <c r="G8" s="18" t="n">
+      <c r="G8" s="2" t="n">
         <v>28087</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="N8" s="2"/>
+      <c r="O8" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="O8" s="23" t="s">
+      <c r="P8" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="P8" s="24" t="s">
+      <c r="Q8" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="8" t="n">
         <v>18550</v>
       </c>
-      <c r="G9" s="16" t="n">
+      <c r="G9" s="2" t="n">
         <v>18066</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="1" t="s">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="N9" s="25" t="s">
+      <c r="N9" s="2"/>
+      <c r="O9" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="P9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="26" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="27" t="n">
+      <c r="F10" s="8" t="n">
         <v>18550</v>
       </c>
-      <c r="G10" s="26" t="n">
+      <c r="G10" s="2" t="n">
         <v>18066</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="29"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="8" t="n">
         <v>18550</v>
       </c>
-      <c r="G11" s="16" t="n">
+      <c r="G11" s="2" t="n">
         <v>18066</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="1" t="s">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="2"/>
+      <c r="O11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O11" s="19" t="n">
+      <c r="P11" s="10" t="n">
         <v>108102</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="Q11" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="27" t="n">
+      <c r="F12" s="8" t="n">
         <v>18550</v>
       </c>
-      <c r="G12" s="26" t="n">
+      <c r="G12" s="2" t="n">
         <v>18066</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="30"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="2" t="n">
         <v>28087</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="2"/>
+      <c r="O13" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="P13" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="Q13" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K14" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M16" s="31"/>
-      <c r="N16" s="32"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="ENSG00000085662"/>
     <hyperlink ref="D4" r:id="rId2" display="P51570"/>
-    <hyperlink ref="N9" r:id="rId3" display="Oryctolagus cuniculus, homo sapiens"/>
+    <hyperlink ref="O9" r:id="rId3" display="Oryctolagus cuniculus, homo sapiens"/>
     <hyperlink ref="C13" r:id="rId4" display="EC:2.4.1.18"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/ValidateData/kinetic-data_WP5173.xlsx
+++ b/ValidateData/kinetic-data_WP5173.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="145">
   <si>
     <t xml:space="preserve">EnzymePW</t>
   </si>
@@ -88,32 +88,10 @@
     <t xml:space="preserve">0.223</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">358 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(Pelomonas saccharophila )</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">\</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1, 9.6</t>
+    <t xml:space="preserve">7.1</t>
   </si>
   <si>
     <t xml:space="preserve">37</t>
@@ -128,6 +106,12 @@
     <t xml:space="preserve">Sabio, BRENDA</t>
   </si>
   <si>
+    <t xml:space="preserve">9.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pelomonas saccharophila</t>
+  </si>
+  <si>
     <t xml:space="preserve">AKR1B1</t>
   </si>
   <si>
@@ -143,47 +127,46 @@
     <t xml:space="preserve">ENSG00000085662</t>
   </si>
   <si>
-    <t xml:space="preserve">40, 43.3, 46.7, 49.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.233, 0.4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0.2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(Debaryomyces nepalensis)</t>
-    </r>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homo sapiens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6814912, 1901806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">25, 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">homo sapiens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6814912, 1901806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sabio</t>
+    <t xml:space="preserve"> Debaryomyces nepalensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
   </si>
   <si>
     <t xml:space="preserve">GALK1</t>
@@ -201,10 +184,10 @@
     <t xml:space="preserve">ENSG00000108479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17, 0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7, 8.7</t>
+    <t xml:space="preserve">13554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17</t>
   </si>
   <si>
     <t xml:space="preserve">10.1</t>
@@ -219,6 +202,15 @@
     <t xml:space="preserve">BRENDA</t>
   </si>
   <si>
+    <t xml:space="preserve">0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7</t>
+  </si>
+  <si>
     <t xml:space="preserve">PGM1</t>
   </si>
   <si>
@@ -234,54 +226,25 @@
     <t xml:space="preserve">ENSG00000079739</t>
   </si>
   <si>
-    <t xml:space="preserve">58601, 14314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0805 - 0.088</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">143 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">s^(-1)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1.8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">µM^(-1)*s^(-1)</t>
-    </r>
+    <t xml:space="preserve">58601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.088</t>
   </si>
   <si>
     <t xml:space="preserve">GALT</t>
@@ -299,15 +262,12 @@
     <t xml:space="preserve">ENSG00000213930</t>
   </si>
   <si>
-    <t xml:space="preserve">0.21, 0.43 </t>
+    <t xml:space="preserve">0.21</t>
   </si>
   <si>
     <t xml:space="preserve">13.06</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7</t>
-  </si>
-  <si>
     <t xml:space="preserve">homo sapiens </t>
   </si>
   <si>
@@ -317,6 +277,9 @@
     <t xml:space="preserve">BRENDA, Sabio</t>
   </si>
   <si>
+    <t xml:space="preserve">0.43 </t>
+  </si>
+  <si>
     <t xml:space="preserve">GALE</t>
   </si>
   <si>
@@ -332,7 +295,7 @@
     <t xml:space="preserve">ENSG00000117308</t>
   </si>
   <si>
-    <t xml:space="preserve">0.069, 0.38</t>
+    <t xml:space="preserve">0.069</t>
   </si>
   <si>
     <t xml:space="preserve">8.8</t>
@@ -341,6 +304,9 @@
     <t xml:space="preserve">16302980, 21703329, 16302980 </t>
   </si>
   <si>
+    <t xml:space="preserve">0.38</t>
+  </si>
+  <si>
     <t xml:space="preserve">PYGL</t>
   </si>
   <si>
@@ -356,7 +322,7 @@
     <t xml:space="preserve">ENSG00000100504</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1, 5 mM</t>
+    <t xml:space="preserve">0.1</t>
   </si>
   <si>
     <t xml:space="preserve">7.2</t>
@@ -371,6 +337,9 @@
     <t xml:space="preserve">7929251, 7929251</t>
   </si>
   <si>
+    <t xml:space="preserve">5 </t>
+  </si>
+  <si>
     <t xml:space="preserve">GYG1</t>
   </si>
   <si>
@@ -389,21 +358,21 @@
     <t xml:space="preserve">0.002 (rabbit) </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0053, 0.0183</t>
-  </si>
-  <si>
     <t xml:space="preserve">7.4</t>
   </si>
   <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oryctolagus cuniculus, homo sapiens</t>
+    <t xml:space="preserve">rabbit</t>
   </si>
   <si>
     <t xml:space="preserve">2970965, 16889748</t>
   </si>
   <si>
+    <t xml:space="preserve">0.0053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0183</t>
+  </si>
+  <si>
     <t xml:space="preserve">GYG2</t>
   </si>
   <si>
@@ -434,7 +403,10 @@
     <t xml:space="preserve">ENSG00000104812</t>
   </si>
   <si>
-    <t xml:space="preserve">0.021, 0.081 </t>
+    <t xml:space="preserve">0.021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.081 </t>
   </si>
   <si>
     <t xml:space="preserve">GYS2</t>
@@ -464,19 +436,25 @@
     <t xml:space="preserve">ENSG00000114480</t>
   </si>
   <si>
+    <t xml:space="preserve">glycogen (n+1) = glycogen</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.0056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.068, 0.15</t>
+    <t xml:space="preserve">Oryctolagus cuniculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5288588, 25107532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mycobacterium tuberculosis</t>
   </si>
   <si>
     <t xml:space="preserve">7.5 </t>
   </si>
   <si>
-    <t xml:space="preserve">km: Oryctolagus cuniculus , Kcat: Mycobacterium tuberculosis, pH &amp; temp: Homo sapiens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5288588, 25107532</t>
+    <t xml:space="preserve">Homo sapiens</t>
   </si>
 </sst>
 </file>
@@ -487,7 +465,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -511,13 +489,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF181717"/>
       <name val="Calibri"/>
@@ -525,20 +496,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
       <sz val="11"/>
-      <color rgb="FF0563C1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF181717"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -558,7 +519,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -582,11 +543,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -607,7 +565,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -615,16 +573,8 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -639,23 +589,18 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -681,7 +626,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -725,15 +670,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="76.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -789,7 +746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -813,547 +770,1652 @@
       <c r="I2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="8" t="n">
-        <v>37965</v>
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="4" t="n">
+        <v>21296</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>28260</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>36</v>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="9" t="n">
-        <v>13554</v>
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="4" t="n">
+        <v>21296</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>28260</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>37</v>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>51</v>
+        <v>29</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="8" t="n">
-        <v>23539</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>37965</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>28260</v>
+      </c>
+      <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="10" t="n">
-        <v>25288802</v>
+        <v>36</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="9" t="n">
-        <v>22169</v>
+        <v>34</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>37965</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>18066</v>
+        <v>28260</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="11" t="n">
-        <v>167</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>71</v>
+        <v>36</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="9" t="n">
-        <v>22170</v>
+        <v>34</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>37965</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>18307</v>
+        <v>28260</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="11" t="n">
-        <v>36</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>80</v>
+        <v>36</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="9" t="n">
-        <v>41732</v>
+        <v>34</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>37965</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>28087</v>
+        <v>28260</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>88</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q8" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="8" t="n">
-        <v>18550</v>
+        <v>34</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>37965</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>18066</v>
+        <v>28260</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="14" t="s">
-        <v>100</v>
+      <c r="O9" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="8" t="n">
-        <v>18550</v>
+        <v>34</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>37965</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>18066</v>
+        <v>28260</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="7"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="2"/>
+      <c r="O10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" s="8" t="n">
-        <v>18550</v>
+        <v>34</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>37965</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>18066</v>
+        <v>28260</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>23</v>
+      <c r="I11" s="2"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>88</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11" s="10" t="n">
-        <v>108102</v>
+        <v>46</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="8" t="n">
-        <v>18550</v>
+        <v>34</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>37965</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>18066</v>
+        <v>28260</v>
       </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="N12" s="2"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>119</v>
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>23</v>
+        <v>34</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>37965</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>28087</v>
+        <v>28260</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="2" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>28260</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>28260</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>28260</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>28260</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="7" t="n">
+        <v>23539</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P18" s="8" t="n">
+        <v>25288802</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>23539</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="8" t="n">
+        <v>25288802</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v>23539</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>25288802</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <v>23539</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P21" s="8" t="n">
+        <v>25288802</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <v>22169</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>18066</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>167</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <v>22169</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>18066</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>167</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="7" t="n">
+        <v>22170</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>18307</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <v>22170</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>18307</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <v>41732</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>28087</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="7" t="n">
+        <v>41732</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>28087</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="7" t="n">
+        <v>18550</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>18066</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <v>18550</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>18066</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="7" t="n">
+        <v>18550</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>18066</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="7" t="n">
+        <v>18550</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>18066</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="P13" s="6" t="s">
+      <c r="E32" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
+      <c r="F32" s="7" t="n">
+        <v>18550</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>18066</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P32" s="8" t="n">
+        <v>108102</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="7" t="n">
+        <v>18550</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>18066</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P33" s="8" t="n">
+        <v>108102</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" s="7" t="n">
+        <v>18550</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>18066</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>28087</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>28087</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="9" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>28087</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>28087</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="ENSG00000085662"/>
-    <hyperlink ref="D4" r:id="rId2" display="P51570"/>
-    <hyperlink ref="O9" r:id="rId3" display="Oryctolagus cuniculus, homo sapiens"/>
-    <hyperlink ref="C13" r:id="rId4" display="EC:2.4.1.18"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
